--- a/data/oldage.xlsx
+++ b/data/oldage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cheung Ngo\Desktop\audit_abilify_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B872DD4-9B45-4317-BAB7-56E9C0F8A1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CD3E04-E6C6-4492-8B8D-CD2936190F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -646,8 +645,8 @@
   </sheetPr>
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J34" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1997,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="S20">
         <v>0</v>
